--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2970207.542489474</v>
+        <v>-2970854.515030658</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417411</v>
+        <v>2.565094327417441</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748825</v>
+        <v>32.99210285748827</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="W11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.68690330538618</v>
+        <v>24.68690330538726</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087824</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964391</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998883</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362279</v>
+        <v>0.4251038644362595</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938136</v>
+        <v>9.028675106938165</v>
       </c>
       <c r="U13" t="n">
-        <v>67.5913472788246</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692794</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740432</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298044</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570102</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="E14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417411</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748831</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>27.25199763280352</v>
       </c>
       <c r="X14" t="n">
-        <v>57.67900616287454</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087824</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964391</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998883</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362279</v>
+        <v>0.4251038644362879</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938136</v>
+        <v>9.028675106938193</v>
       </c>
       <c r="U16" t="n">
-        <v>67.5913472788246</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692794</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740432</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298044</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570102</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.18629299084046</v>
+        <v>33.18629299084045</v>
       </c>
       <c r="C17" t="n">
         <v>16.45497867838804</v>
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>20.3314821306148</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.15695475068102</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007082</v>
       </c>
       <c r="V29" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W29" t="n">
-        <v>129.514998713126</v>
+        <v>129.5149987131259</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437407</v>
       </c>
       <c r="Y29" t="n">
         <v>165.6719534638072</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670398</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222649</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.9742284625714</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520711</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140717</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951052</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.0774585999869</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880617</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520767</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V35" t="n">
         <v>85.39850503054896</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V38" t="n">
         <v>85.39850503054896</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
@@ -3746,16 +3746,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E41" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325529077</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054893</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W41" t="n">
         <v>107.3954005085842</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544512</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
@@ -3983,16 +3983,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E44" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054893</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W44" t="n">
         <v>107.3954005085842</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544512</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,73 +5015,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.55966711750001</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="C11" t="n">
-        <v>74.55966711750001</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="D11" t="n">
-        <v>5.47176207904559</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="E11" t="n">
-        <v>5.47176207904559</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="F11" t="n">
-        <v>5.47176207904559</v>
+        <v>74.5596671175</v>
       </c>
       <c r="G11" t="n">
-        <v>5.47176207904559</v>
+        <v>74.5596671175</v>
       </c>
       <c r="H11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045589</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439192</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439192</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="K11" t="n">
-        <v>55.23039044285072</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="L11" t="n">
-        <v>113.516261794214</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="M11" t="n">
-        <v>113.516261794214</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="N11" t="n">
-        <v>181.2293175224031</v>
+        <v>103.280117882581</v>
       </c>
       <c r="O11" t="n">
-        <v>181.2293175224031</v>
+        <v>158.7206970049236</v>
       </c>
       <c r="P11" t="n">
-        <v>237.7142469856499</v>
+        <v>215.2056264681703</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.7142469856499</v>
+        <v>215.2056264681703</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5881039522795</v>
+        <v>251.0794834347998</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522794</v>
       </c>
       <c r="T11" t="n">
-        <v>270.9970995811508</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="U11" t="n">
-        <v>237.6717431594455</v>
+        <v>237.6717431594453</v>
       </c>
       <c r="V11" t="n">
-        <v>237.6717431594455</v>
+        <v>168.5838381209909</v>
       </c>
       <c r="W11" t="n">
-        <v>168.5838381209911</v>
+        <v>168.5838381209909</v>
       </c>
       <c r="X11" t="n">
-        <v>168.5838381209911</v>
+        <v>168.5838381209909</v>
       </c>
       <c r="Y11" t="n">
         <v>143.6475721559544</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="C12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="D12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="E12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="F12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="G12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="H12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
       <c r="I12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="J12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="K12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="L12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="M12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="N12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="O12" t="n">
-        <v>273.5881039522795</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="P12" t="n">
-        <v>273.5881039522795</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.5881039522795</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="R12" t="n">
-        <v>273.5881039522795</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="S12" t="n">
-        <v>273.5881039522795</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="T12" t="n">
-        <v>273.5881039522795</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="U12" t="n">
-        <v>267.3340911006756</v>
+        <v>50.92431750291711</v>
       </c>
       <c r="V12" t="n">
-        <v>253.7394374848737</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045589</v>
       </c>
       <c r="X12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045589</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.8815356768041</v>
+        <v>20.1028458950565</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.45443122367972</v>
+        <v>5.471762079045589</v>
       </c>
       <c r="C13" t="n">
-        <v>94.0567675422005</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="D13" t="n">
-        <v>161.7698232703897</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="E13" t="n">
-        <v>161.7698232703897</v>
+        <v>76.55958349728303</v>
       </c>
       <c r="F13" t="n">
-        <v>161.7698232703897</v>
+        <v>76.55958349728303</v>
       </c>
       <c r="G13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="H13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="I13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="J13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="K13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="L13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="M13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="N13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="O13" t="n">
-        <v>161.7698232703897</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180217</v>
+        <v>126.8122337898327</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751568</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297647</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693358</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395405</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617191</v>
+        <v>13.54144478617196</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537519</v>
+        <v>5.773428652537547</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.7354771944089</v>
+        <v>212.7354771944091</v>
       </c>
       <c r="C14" t="n">
-        <v>212.7354771944089</v>
+        <v>212.7354771944091</v>
       </c>
       <c r="D14" t="n">
-        <v>212.7354771944089</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="E14" t="n">
-        <v>143.6475721559544</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="F14" t="n">
-        <v>74.55966711750001</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="G14" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H14" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439192</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="J14" t="n">
-        <v>41.69911754908685</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="K14" t="n">
-        <v>41.69911754908685</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="L14" t="n">
-        <v>41.69911754908685</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="M14" t="n">
-        <v>41.69911754908685</v>
+        <v>41.69911754908732</v>
       </c>
       <c r="N14" t="n">
-        <v>41.69911754908685</v>
+        <v>41.69911754908732</v>
       </c>
       <c r="O14" t="n">
-        <v>109.412173277276</v>
+        <v>109.4121732772765</v>
       </c>
       <c r="P14" t="n">
-        <v>165.8971027405228</v>
+        <v>165.8971027405232</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2056264681702</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834347998</v>
+        <v>251.0794834348001</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811508</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U14" t="n">
-        <v>270.9970995811508</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="V14" t="n">
-        <v>270.9970995811508</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="W14" t="n">
-        <v>270.9970995811508</v>
+        <v>212.7354771944091</v>
       </c>
       <c r="X14" t="n">
-        <v>212.7354771944089</v>
+        <v>212.7354771944091</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.7354771944089</v>
+        <v>212.7354771944091</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="F15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="G15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="H15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="I15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="J15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="K15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="L15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="M15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="N15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291705</v>
+        <v>50.92431750291717</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711512</v>
+        <v>37.32966388711517</v>
       </c>
       <c r="W15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C16" t="n">
-        <v>56.07409839756637</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D16" t="n">
-        <v>56.07409839756637</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E16" t="n">
-        <v>56.07409839756637</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F16" t="n">
-        <v>56.07409839756637</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G16" t="n">
-        <v>56.07409839756637</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="H16" t="n">
-        <v>114.0806870242474</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="I16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="J16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="K16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="L16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="M16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="N16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="O16" t="n">
-        <v>181.7937427524365</v>
+        <v>5.596201392238811</v>
       </c>
       <c r="P16" t="n">
-        <v>181.7937427524365</v>
+        <v>73.30925712042803</v>
       </c>
       <c r="Q16" t="n">
-        <v>181.7937427524365</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180217</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751568</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297647</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693358</v>
+        <v>116.701929669336</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395405</v>
+        <v>81.86725582395422</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617191</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537519</v>
+        <v>5.77342865253758</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>166.386378143669</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345338</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832885</v>
       </c>
       <c r="F17" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673671</v>
       </c>
       <c r="G17" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I17" t="n">
-        <v>5.47176207904559</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="J17" t="n">
-        <v>48.67201024445706</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="K17" t="n">
-        <v>48.67201024445706</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="L17" t="n">
-        <v>116.3850659726462</v>
+        <v>140.897873535424</v>
       </c>
       <c r="M17" t="n">
-        <v>116.3850659726462</v>
+        <v>140.897873535424</v>
       </c>
       <c r="N17" t="n">
-        <v>116.3850659726462</v>
+        <v>140.897873535424</v>
       </c>
       <c r="O17" t="n">
-        <v>116.3850659726462</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="P17" t="n">
-        <v>184.0981217008354</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="Q17" t="n">
-        <v>184.0981217008354</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="R17" t="n">
-        <v>184.0981217008354</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S17" t="n">
-        <v>184.0981217008354</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T17" t="n">
-        <v>184.0981217008354</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290246</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522798</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y17" t="n">
         <v>216.5290767994554</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278993</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436689</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832884</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G20" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O20" t="n">
-        <v>89.96361064580653</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P20" t="n">
-        <v>89.96361064580653</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.3850659726462</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R20" t="n">
-        <v>116.3850659726462</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="S20" t="n">
-        <v>116.3850659726462</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008354</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290246</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152948</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C23" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832884</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
-        <v>5.471762079045591</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I23" t="n">
-        <v>73.18481780723478</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="J23" t="n">
-        <v>73.18481780723478</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="K23" t="n">
-        <v>73.18481780723478</v>
+        <v>48.67201024445711</v>
       </c>
       <c r="L23" t="n">
-        <v>73.18481780723478</v>
+        <v>48.67201024445711</v>
       </c>
       <c r="M23" t="n">
-        <v>73.18481780723478</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="N23" t="n">
-        <v>73.18481780723478</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="O23" t="n">
-        <v>73.18481780723478</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="P23" t="n">
-        <v>73.18481780723478</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.3850659726463</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="R23" t="n">
-        <v>116.3850659726463</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="S23" t="n">
-        <v>116.3850659726463</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="T23" t="n">
-        <v>184.0981217008355</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U23" t="n">
-        <v>251.8111774290246</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X23" t="n">
-        <v>253.0512533152949</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034312</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>148.7795367731729</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K26" t="n">
-        <v>148.7795367731729</v>
+        <v>586.015011407871</v>
       </c>
       <c r="L26" t="n">
-        <v>148.7795367731729</v>
+        <v>1014.990011855934</v>
       </c>
       <c r="M26" t="n">
-        <v>577.7545372212358</v>
+        <v>1014.990011855934</v>
       </c>
       <c r="N26" t="n">
-        <v>1006.729537669299</v>
+        <v>1091.043624926479</v>
       </c>
       <c r="O26" t="n">
-        <v>1077.736569395096</v>
+        <v>1162.050656652276</v>
       </c>
       <c r="P26" t="n">
-        <v>1468.084892175845</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q26" t="n">
-        <v>1669.770960790283</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6300,16 +6300,16 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M27" t="n">
         <v>78.59820166294284</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
       <c r="C28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
       <c r="D28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
       <c r="E28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
       <c r="F28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
       <c r="G28" t="n">
-        <v>34.66464650085356</v>
+        <v>89.70052015301022</v>
       </c>
       <c r="H28" t="n">
-        <v>34.66464650085356</v>
+        <v>89.70052015301022</v>
       </c>
       <c r="I28" t="n">
-        <v>34.66464650085356</v>
+        <v>89.70052015301022</v>
       </c>
       <c r="J28" t="n">
-        <v>34.66464650085356</v>
+        <v>89.70052015301022</v>
       </c>
       <c r="K28" t="n">
-        <v>151.9226084603342</v>
+        <v>94.31611000942966</v>
       </c>
       <c r="L28" t="n">
-        <v>151.9226084603342</v>
+        <v>94.31611000942966</v>
       </c>
       <c r="M28" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N28" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O28" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P28" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R28" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S28" t="n">
         <v>210.0320876678294</v>
@@ -6427,7 +6427,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923736</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847836</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522886</v>
+        <v>695.616740852289</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776839</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977726</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6464,28 +6464,28 @@
         <v>148.7795367731729</v>
       </c>
       <c r="K29" t="n">
-        <v>544.9803681208614</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="L29" t="n">
-        <v>605.8056828563679</v>
+        <v>340.787613718538</v>
       </c>
       <c r="M29" t="n">
-        <v>605.8056828563679</v>
+        <v>414.6874796503153</v>
       </c>
       <c r="N29" t="n">
-        <v>1034.780683304431</v>
+        <v>843.6624800983781</v>
       </c>
       <c r="O29" t="n">
-        <v>1287.044744271584</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P29" t="n">
-        <v>1677.393067052333</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1677.393067052333</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.806367403105</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6540,43 +6540,43 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="K30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="L30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="M30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="N30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.9351931824676</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779437</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6598,67 +6598,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>34.66464650085356</v>
+        <v>65.44254223956189</v>
       </c>
       <c r="D31" t="n">
-        <v>34.66464650085356</v>
+        <v>136.7319984947421</v>
       </c>
       <c r="E31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="F31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="G31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="H31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="I31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="J31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="K31" t="n">
-        <v>89.68764799646624</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="L31" t="n">
-        <v>89.68764799646624</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="M31" t="n">
-        <v>89.68764799646624</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="N31" t="n">
-        <v>89.68764799646624</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="O31" t="n">
-        <v>151.8710770559299</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="P31" t="n">
-        <v>151.8710770559299</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.8710770559299</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="R31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935659</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042657</v>
       </c>
       <c r="V31" t="n">
         <v>105.5764649300127</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335923</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923731</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847831</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776835</v>
       </c>
       <c r="F32" t="n">
         <v>343.7160714977722</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034312</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>67.29938996034312</v>
+        <v>322.88141175434</v>
       </c>
       <c r="K32" t="n">
-        <v>463.5002213080317</v>
+        <v>385.3421263187572</v>
       </c>
       <c r="L32" t="n">
-        <v>892.4752217560945</v>
+        <v>814.3171267668199</v>
       </c>
       <c r="M32" t="n">
-        <v>966.3750876878718</v>
+        <v>902.6868529457685</v>
       </c>
       <c r="N32" t="n">
-        <v>1395.350088135935</v>
+        <v>902.6868529457685</v>
       </c>
       <c r="O32" t="n">
-        <v>1424.371543196677</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="P32" t="n">
-        <v>1424.371543196677</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q32" t="n">
-        <v>1694.819024691905</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R32" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V33" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6850,52 +6850,52 @@
         <v>34.66464650085356</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>38.27368995588181</v>
       </c>
       <c r="I34" t="n">
-        <v>34.66464650085356</v>
+        <v>38.27368995588181</v>
       </c>
       <c r="J34" t="n">
-        <v>34.66464650085356</v>
+        <v>38.27368995588181</v>
       </c>
       <c r="K34" t="n">
-        <v>34.66464650085356</v>
+        <v>38.27368995588181</v>
       </c>
       <c r="L34" t="n">
-        <v>34.66464650085356</v>
+        <v>38.27368995588181</v>
       </c>
       <c r="M34" t="n">
-        <v>34.66464650085356</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="N34" t="n">
-        <v>160.4929376713612</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="O34" t="n">
-        <v>160.4929376713612</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="P34" t="n">
-        <v>160.4929376713612</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.4929376713612</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="T34" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6920,7 +6920,7 @@
         <v>600.7728648154982</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303295</v>
       </c>
       <c r="F35" t="n">
         <v>293.5582524398542</v>
@@ -6935,25 +6935,25 @@
         <v>83.72603010379387</v>
       </c>
       <c r="J35" t="n">
-        <v>187.1045791391201</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K35" t="n">
-        <v>355.6954062842028</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L35" t="n">
-        <v>438.4191232422057</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M35" t="n">
-        <v>534.2173913964793</v>
+        <v>812.6335790062926</v>
       </c>
       <c r="N35" t="n">
-        <v>534.2173913964793</v>
+        <v>910.5855942993336</v>
       </c>
       <c r="O35" t="n">
-        <v>895.4793361163529</v>
+        <v>1003.491028247628</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.741280836226</v>
+        <v>1038.141766452788</v>
       </c>
       <c r="Q35" t="n">
         <v>1330.487650170513</v>
@@ -7002,37 +7002,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="M36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="N36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="O36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q36" t="n">
         <v>36.11675336931268</v>
@@ -7075,43 +7075,43 @@
         <v>29.19288442180797</v>
       </c>
       <c r="D37" t="n">
-        <v>43.38092465038574</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E37" t="n">
-        <v>43.38092465038574</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F37" t="n">
-        <v>43.38092465038574</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G37" t="n">
-        <v>43.38092465038574</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q37" t="n">
         <v>125.8253588837063</v>
@@ -7169,34 +7169,34 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I38" t="n">
-        <v>29.19288442180797</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J38" t="n">
-        <v>227.1782635612307</v>
+        <v>187.10457913912</v>
       </c>
       <c r="K38" t="n">
-        <v>311.5373803481443</v>
+        <v>271.4636959260336</v>
       </c>
       <c r="L38" t="n">
-        <v>672.7993250680179</v>
+        <v>354.1874128840363</v>
       </c>
       <c r="M38" t="n">
-        <v>768.5975932222916</v>
+        <v>715.4493576039099</v>
       </c>
       <c r="N38" t="n">
-        <v>1129.859537942165</v>
+        <v>1076.711302323783</v>
       </c>
       <c r="O38" t="n">
-        <v>1222.764971890459</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="P38" t="n">
-        <v>1303.687746960346</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q38" t="n">
-        <v>1377.434116294633</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R38" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S38" t="n">
         <v>1437.745818867902</v>
@@ -7345,16 +7345,16 @@
         <v>29.19288442180797</v>
       </c>
       <c r="O40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S40" t="n">
         <v>125.8253588837063</v>
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767108</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.389042858557</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154985</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
         <v>293.5582524398542</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H41" t="n">
         <v>29.19288442180797</v>
       </c>
       <c r="I41" t="n">
-        <v>83.7260301037939</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J41" t="n">
-        <v>361.2064541202873</v>
+        <v>32.70378734542304</v>
       </c>
       <c r="K41" t="n">
-        <v>510.0745218528431</v>
+        <v>393.9657320652967</v>
       </c>
       <c r="L41" t="n">
-        <v>871.3364665727167</v>
+        <v>476.6894490232994</v>
       </c>
       <c r="M41" t="n">
-        <v>967.1347347269905</v>
+        <v>572.487717177573</v>
       </c>
       <c r="N41" t="n">
-        <v>967.1347347269905</v>
+        <v>933.7496618974467</v>
       </c>
       <c r="O41" t="n">
-        <v>1060.040168675285</v>
+        <v>1026.655095845741</v>
       </c>
       <c r="P41" t="n">
-        <v>1060.040168675285</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q41" t="n">
-        <v>1352.38605239301</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
-        <v>1412.697754966279</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S41" t="n">
-        <v>1459.644221090398</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
         <v>1459.644221090398</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821902</v>
+        <v>982.4921465821899</v>
       </c>
     </row>
     <row r="42">
@@ -7509,22 +7509,22 @@
         <v>29.19288442180797</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W42" t="n">
         <v>29.19288442180797</v>
@@ -7573,37 +7573,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="N43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="O43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W43" t="n">
         <v>29.19288442180797</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767106</v>
+        <v>840.490435976711</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585571</v>
       </c>
       <c r="D44" t="n">
         <v>600.7728648154985</v>
@@ -7637,43 +7637,43 @@
         <v>293.5582524398542</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H44" t="n">
         <v>29.19288442180797</v>
       </c>
       <c r="I44" t="n">
-        <v>83.7260301037939</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J44" t="n">
-        <v>187.1045791391201</v>
+        <v>187.10457913912</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4636959260337</v>
+        <v>271.4636959260336</v>
       </c>
       <c r="L44" t="n">
-        <v>354.1874128840366</v>
+        <v>632.7256406459071</v>
       </c>
       <c r="M44" t="n">
-        <v>715.4493576039101</v>
+        <v>721.6511270981723</v>
       </c>
       <c r="N44" t="n">
-        <v>1076.711302323784</v>
+        <v>1082.913071818046</v>
       </c>
       <c r="O44" t="n">
-        <v>1169.616736272078</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="P44" t="n">
-        <v>1169.616736272078</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q44" t="n">
-        <v>1399.332518517129</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R44" t="n">
-        <v>1459.644221090398</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S44" t="n">
-        <v>1459.644221090398</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
         <v>1459.644221090398</v>
@@ -7682,16 +7682,16 @@
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336785</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.511578802862</v>
       </c>
       <c r="X44" t="n">
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821901</v>
+        <v>982.4921465821905</v>
       </c>
     </row>
     <row r="45">
@@ -7737,31 +7737,31 @@
         <v>29.19288442180797</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W45" t="n">
         <v>29.19288442180797</v>
@@ -7825,22 +7825,22 @@
         <v>29.19288442180797</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W46" t="n">
         <v>29.19288442180797</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>149.2908438169256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>100.5187404447658</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8845,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.78688843703162</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8860,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>52.99086077633981</v>
       </c>
       <c r="K14" t="n">
-        <v>79.65527369999262</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333817</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>102.5188943468874</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>159.5754064333817</v>
+        <v>371.8683694066226</v>
       </c>
       <c r="M26" t="n">
-        <v>358.661752036652</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>356.4862498762809</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>332.5114528056594</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.3516176794413</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,19 +10030,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>160.6867455508064</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>313.2194285691437</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>356.4862498762809</v>
       </c>
       <c r="O29" t="n">
-        <v>183.0879083246018</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.6434343361249</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>169.5633330205178</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>371.8683694066225</v>
+        <v>371.8683694066227</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>14.61602045168821</v>
       </c>
       <c r="N32" t="n">
-        <v>356.4862498762809</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O32" t="n">
-        <v>178.6054448883822</v>
+        <v>361.5838067901667</v>
       </c>
       <c r="P32" t="n">
-        <v>120.6259271648234</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,19 +10422,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>102.5727324697714</v>
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.99389842417952</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>85.08253571532239</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>190.4505282695106</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>304.6200941950897</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>283.1708784343306</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10744,25 +10744,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O37" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.56245465060253</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>268.1451278440404</v>
       </c>
       <c r="N38" t="n">
-        <v>299.5226365746961</v>
+        <v>265.9696256836693</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>228.0504115436861</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>65.16055651074976</v>
+        <v>279.6998261949091</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>265.9696256836693</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>23.42508600410083</v>
+        <v>150.6701110309083</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11142,19 +11142,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11233,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>281.351745214011</v>
       </c>
       <c r="M44" t="n">
-        <v>268.1451278440403</v>
+        <v>236.1925127525679</v>
       </c>
       <c r="N44" t="n">
-        <v>265.9696256836692</v>
+        <v>280.3550004454768</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.7996846164245</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.5448615260242</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11452,19 +11452,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331396</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189314</v>
       </c>
       <c r="D11" t="n">
-        <v>69.75768280651731</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>164.6680117952762</v>
+        <v>164.6680117952763</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205296</v>
+        <v>120.4468135324598</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9592819557576</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1318174460264</v>
+        <v>46.73479145795662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625081</v>
+        <v>41.6861715744383</v>
       </c>
       <c r="W11" t="n">
-        <v>63.6830670524735</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="X11" t="n">
         <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.5501444858384</v>
+        <v>143.5501444858374</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.2663860313838</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189314</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945872</v>
+        <v>69.75768280651732</v>
       </c>
       <c r="E14" t="n">
-        <v>96.27098580720637</v>
+        <v>96.27098580720639</v>
       </c>
       <c r="F14" t="n">
-        <v>120.4468135324598</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
         <v>127.5622559676878</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460264</v>
+        <v>115.1318174460265</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417484</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748825</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625081</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>104.8280954077399</v>
       </c>
       <c r="X14" t="n">
-        <v>94.73256900828363</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912246</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1342517.264036979</v>
+        <v>1342517.26403698</v>
       </c>
     </row>
     <row r="13">
@@ -26326,31 +26326,31 @@
         <v>139707.9523740186</v>
       </c>
       <c r="G2" t="n">
-        <v>162783.8817229875</v>
+        <v>162783.8817229874</v>
       </c>
       <c r="H2" t="n">
         <v>162783.8817229874</v>
       </c>
       <c r="I2" t="n">
-        <v>162783.8817229875</v>
+        <v>162783.8817229874</v>
       </c>
       <c r="J2" t="n">
         <v>162783.8817229873</v>
       </c>
       <c r="K2" t="n">
-        <v>162783.8817229871</v>
+        <v>162783.8817229873</v>
       </c>
       <c r="L2" t="n">
         <v>162783.8817229872</v>
       </c>
       <c r="M2" t="n">
+        <v>162783.8817229874</v>
+      </c>
+      <c r="N2" t="n">
+        <v>162783.8817229874</v>
+      </c>
+      <c r="O2" t="n">
         <v>162783.8817229873</v>
-      </c>
-      <c r="N2" t="n">
-        <v>162783.8817229873</v>
-      </c>
-      <c r="O2" t="n">
-        <v>162783.8817229874</v>
       </c>
       <c r="P2" t="n">
         <v>162783.8817229873</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039992</v>
+        <v>284205.3843039991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363342</v>
+        <v>17695.67856363344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750823</v>
+        <v>71148.02019750816</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.676015374</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="K4" t="n">
         <v>434774.7393444277</v>
@@ -26451,13 +26451,13 @@
         <v>431062.8369613772</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334748.4450845435</v>
+        <v>-334752.8526616915</v>
       </c>
       <c r="C6" t="n">
-        <v>-334748.4450845434</v>
+        <v>-334752.8526616914</v>
       </c>
       <c r="D6" t="n">
-        <v>-334748.4450845435</v>
+        <v>-334752.8526616914</v>
       </c>
       <c r="E6" t="n">
-        <v>-530895.1376286121</v>
+        <v>-531183.5867454741</v>
       </c>
       <c r="F6" t="n">
-        <v>-246689.7533246128</v>
+        <v>-246978.202441475</v>
       </c>
       <c r="G6" t="n">
-        <v>-405116.4930329138</v>
+        <v>-405116.493032914</v>
       </c>
       <c r="H6" t="n">
-        <v>-299452.4186004791</v>
+        <v>-299452.4186004793</v>
       </c>
       <c r="I6" t="n">
-        <v>-299452.4186004791</v>
+        <v>-299452.4186004793</v>
       </c>
       <c r="J6" t="n">
         <v>-485956.9327235359</v>
       </c>
       <c r="K6" t="n">
-        <v>-319332.1243802837</v>
+        <v>-319332.1243802836</v>
       </c>
       <c r="L6" t="n">
-        <v>-424996.1988127183</v>
+        <v>-424996.1988127184</v>
       </c>
       <c r="M6" t="n">
-        <v>-331016.9338822495</v>
+        <v>-331016.9338822494</v>
       </c>
       <c r="N6" t="n">
         <v>-313321.2553186161</v>
       </c>
       <c r="O6" t="n">
-        <v>-384469.2755161242</v>
+        <v>-384469.2755161243</v>
       </c>
       <c r="P6" t="n">
-        <v>-313321.2553186161</v>
+        <v>-313321.2553186162</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="F3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="G3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="H3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="J3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="L3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="M3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="N3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="O3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="P3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598806988</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454177</v>
+        <v>22.1195982045418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688529</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,34 +28111,34 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>177.7854351803999</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
-        <v>218.4500239600112</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634111</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N11" t="n">
         <v>212.5903128911099</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>205.2914287889889</v>
       </c>
       <c r="P11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>68.12469389135912</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7140436393247</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T11" t="n">
         <v>218.4500239600112</v>
@@ -28187,34 +28187,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985647</v>
+        <v>126.2782371223459</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O12" t="n">
-        <v>134.5526087511656</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28235,7 +28235,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="13">
@@ -28245,22 +28245,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>218.4500239600112</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="D13" t="n">
-        <v>217.4025925025892</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>167.6670333648322</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.689771139254</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="H13" t="n">
         <v>159.857510195687</v>
@@ -28269,28 +28269,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>87.90652965299654</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K13" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681481</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
-        <v>143.204079949867</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.02868467987656</v>
+        <v>199.382387380808</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28348,22 +28348,22 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>144.9059350367873</v>
+        <v>85.72107891227083</v>
       </c>
       <c r="K14" t="n">
-        <v>78.26821371428727</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
-        <v>146.3687890634111</v>
+        <v>152.5627844115884</v>
       </c>
       <c r="N14" t="n">
         <v>144.19328690304</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049955</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P14" t="n">
         <v>218.4500239600112</v>
@@ -28412,7 +28412,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>208.2622905510885</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -28424,34 +28424,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O15" t="n">
-        <v>134.5526087511656</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28485,7 +28485,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>218.4500239600112</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -28497,13 +28497,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.689771139254</v>
+        <v>167.8154674152067</v>
       </c>
       <c r="H16" t="n">
-        <v>218.4500239600112</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>216.1465068568801</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
         <v>109.6934180900282</v>
@@ -28518,19 +28518,19 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068043</v>
+        <v>178.5147763948743</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.9853613927381</v>
+        <v>199.382387380808</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2667614309003</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S16" t="n">
         <v>218.4500239600112</v>
@@ -28582,34 +28582,34 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J17" t="n">
-        <v>182.348553997107</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
         <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>227.9724324214515</v>
+        <v>227.9724324214517</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634111</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
         <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169256</v>
+        <v>214.9243536034575</v>
       </c>
       <c r="P17" t="n">
-        <v>229.7915656417712</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
         <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898694</v>
       </c>
       <c r="S17" t="n">
         <v>195.7140436393247</v>
@@ -28618,10 +28618,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
-        <v>319.8391528055693</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V17" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28661,34 +28661,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R18" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S18" t="n">
         <v>164.5345187941275</v>
@@ -28755,13 +28755,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681481</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O19" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P19" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q19" t="n">
         <v>130.9853613927381</v>
@@ -28816,10 +28816,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>256.4477569426807</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J20" t="n">
         <v>138.7119396886106</v>
@@ -28831,22 +28831,22 @@
         <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634111</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
         <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537014</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.3317730501044</v>
+        <v>212.2800486446214</v>
       </c>
       <c r="R20" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S20" t="n">
         <v>195.7140436393247</v>
@@ -28855,7 +28855,7 @@
         <v>289.4121442754985</v>
       </c>
       <c r="U20" t="n">
-        <v>319.8391528055693</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
         <v>350.5301170005546</v>
@@ -28898,34 +28898,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R21" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S21" t="n">
         <v>164.5345187941275</v>
@@ -28992,13 +28992,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681481</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O22" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P22" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q22" t="n">
         <v>130.9853613927381</v>
@@ -29053,46 +29053,46 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I23" t="n">
-        <v>256.4477569426807</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.9234874142799</v>
+        <v>184.6118261282595</v>
       </c>
       <c r="L23" t="n">
         <v>159.5754064333817</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634111</v>
+        <v>214.7658150514811</v>
       </c>
       <c r="N23" t="n">
-        <v>144.19328690304</v>
+        <v>212.59031289111</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P23" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.2800486446213</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S23" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>319.8391528055693</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V23" t="n">
         <v>350.5301170005546</v>
@@ -29135,34 +29135,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R24" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S24" t="n">
         <v>164.5345187941275</v>
@@ -29229,13 +29229,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681481</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O25" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P25" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q25" t="n">
         <v>130.9853613927381</v>
@@ -29299,13 +29299,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K26" t="n">
-        <v>55.40459306739254</v>
+        <v>86.60377314181494</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="M26" t="n">
-        <v>221.0151182874286</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
@@ -29372,34 +29372,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985647</v>
+        <v>133.2055812664113</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>122.5676255483073</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.89687860438909</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
@@ -29445,7 +29445,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.689771139254</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="H28" t="n">
         <v>159.857510195687</v>
@@ -29454,34 +29454,34 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
+        <v>107.2349444459526</v>
+      </c>
+      <c r="L28" t="n">
+        <v>101.8051034503207</v>
+      </c>
+      <c r="M28" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O28" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.02868467987656</v>
+        <v>63.02868467987658</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
-        <v>221.0151182874286</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T28" t="n">
         <v>221.0151182874286</v>
@@ -29499,7 +29499,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>221.0151182874286</v>
       </c>
     </row>
     <row r="29">
@@ -29536,13 +29536,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>40.30353033430372</v>
+      </c>
+      <c r="M29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="L29" t="n">
-        <v>221.0151182874286</v>
-      </c>
-      <c r="M29" t="n">
-        <v>146.3687890634111</v>
       </c>
       <c r="N29" t="n">
         <v>221.0151182874286</v>
@@ -29554,13 +29554,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>213.3160210530343</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29609,34 +29609,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>78.29747578532815</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703221</v>
+        <v>145.5259375168769</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O30" t="n">
-        <v>126.7010803538059</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29670,13 +29670,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>198.4253365056552</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -29694,31 +29694,31 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>158.1515218592791</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
-        <v>221.0151182874286</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S31" t="n">
-        <v>221.0151182874286</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T31" t="n">
         <v>221.0151182874286</v>
@@ -29770,7 +29770,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
-        <v>138.7119396886106</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K32" t="n">
         <v>221.0151182874286</v>
@@ -29782,13 +29782,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>40.76861248887793</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q32" t="n">
         <v>221.0151182874286</v>
@@ -29797,7 +29797,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209.7494540568997</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -29846,34 +29846,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985647</v>
+        <v>78.29747578532816</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175246</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955182</v>
+        <v>110.4467579361068</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R33" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S33" t="n">
         <v>164.5345187941275</v>
@@ -29922,13 +29922,13 @@
         <v>167.689771139254</v>
       </c>
       <c r="H34" t="n">
-        <v>159.857510195687</v>
+        <v>163.5030086351095</v>
       </c>
       <c r="I34" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,22 +29937,22 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>106.7517885160091</v>
+      </c>
+      <c r="P34" t="n">
+        <v>110.1177504068044</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>65.99146296855858</v>
+      </c>
+      <c r="R34" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="O34" t="n">
-        <v>106.751788516009</v>
-      </c>
-      <c r="P34" t="n">
-        <v>110.1177504068043</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>130.9853613927381</v>
-      </c>
-      <c r="R34" t="n">
-        <v>214.4461586338125</v>
       </c>
       <c r="S34" t="n">
         <v>218.8751278244474</v>
@@ -30019,13 +30019,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N35" t="n">
-        <v>144.19328690304</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O35" t="n">
-        <v>209.5818048944356</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P35" t="n">
-        <v>243.1347164919704</v>
+        <v>196.3952853154799</v>
       </c>
       <c r="Q35" t="n">
         <v>243.1347164919704</v>
@@ -30074,7 +30074,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>150.5000391012308</v>
       </c>
       <c r="G36" t="n">
         <v>135.7848683666891</v>
@@ -30083,34 +30083,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065684</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175246</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.0519101575529</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30147,7 +30147,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>163.3369202807595</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -30159,7 +30159,7 @@
         <v>167.689771139254</v>
       </c>
       <c r="H37" t="n">
-        <v>243.1347164919704</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I37" t="n">
         <v>147.7494808688102</v>
@@ -30168,25 +30168,25 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.02868467987656</v>
+        <v>228.5939214552617</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30241,7 +30241,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I38" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J38" t="n">
         <v>243.1347164919704</v>
@@ -30256,10 +30256,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N38" t="n">
-        <v>209.5817056009435</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O38" t="n">
-        <v>243.1347164919704</v>
+        <v>21.34871857885248</v>
       </c>
       <c r="P38" t="n">
         <v>243.1347164919704</v>
@@ -30271,7 +30271,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="S38" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T38" t="n">
         <v>243.1347164919704</v>
@@ -30320,34 +30320,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290977</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>79.89687860438909</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30405,7 +30405,7 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
         <v>101.8051034503207</v>
@@ -30414,22 +30414,22 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681481</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>204.3603485785326</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R40" t="n">
-        <v>237.7555845778352</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>243.1347164919704</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30478,10 +30478,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I41" t="n">
-        <v>243.1347164919704</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919704</v>
+        <v>142.2583062781208</v>
       </c>
       <c r="K41" t="n">
         <v>243.1347164919704</v>
@@ -30493,13 +30493,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
-        <v>144.19328690304</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O41" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
-        <v>137.9694536496005</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q41" t="n">
         <v>243.1347164919704</v>
@@ -30511,7 +30511,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="T41" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U41" t="n">
         <v>243.1347164919704</v>
@@ -30557,34 +30557,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>113.0519101575529</v>
       </c>
       <c r="R42" t="n">
-        <v>134.2332222258442</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
@@ -30639,28 +30639,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>199.4136635128442</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>201.7388524323767</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681481</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O43" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987658</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30727,16 +30727,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M44" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919704</v>
+        <v>228.7493417301628</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
-        <v>157.5948550372769</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q44" t="n">
         <v>243.1347164919704</v>
@@ -30745,10 +30745,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T44" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U44" t="n">
         <v>243.1347164919704</v>
@@ -30794,40 +30794,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065684</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346591</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175246</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N45" t="n">
-        <v>73.06323650723331</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T45" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U45" t="n">
         <v>224.641496683099</v>
@@ -30876,28 +30876,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O46" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>228.5939214552616</v>
+        <v>228.5939214552617</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M11" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J12" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M12" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R13" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U13" t="n">
         <v>0.01089915222840405</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M14" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J15" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M15" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R16" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U16" t="n">
         <v>0.01089915222840405</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M17" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J18" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M18" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H19" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R19" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U19" t="n">
         <v>0.01089915222840405</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M20" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J21" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M21" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H22" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R22" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U22" t="n">
         <v>0.01089915222840405</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M23" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J24" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M24" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H25" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R25" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U25" t="n">
         <v>0.01089915222840405</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M26" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J27" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M27" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H28" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R28" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U28" t="n">
         <v>0.01089915222840405</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M29" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J30" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M30" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H31" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R31" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U31" t="n">
         <v>0.01089915222840405</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M32" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J33" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M33" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H34" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R34" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U34" t="n">
         <v>0.01089915222840405</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M35" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J36" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M36" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H37" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R37" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U37" t="n">
         <v>0.01089915222840405</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M38" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J39" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M39" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H40" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R40" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U40" t="n">
         <v>0.01089915222840405</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M41" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J42" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M42" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H43" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R43" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U43" t="n">
         <v>0.01089915222840405</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620745</v>
+        <v>0.4454594880620741</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115722</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490853</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457616</v>
+        <v>56.66411735457611</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235589</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M44" t="n">
-        <v>78.2187883331798</v>
+        <v>78.21878833317973</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363618</v>
+        <v>79.48445010363611</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768644</v>
+        <v>64.05763120768638</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146334</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697929</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496592</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143518</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J45" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967788</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934317</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191144</v>
+        <v>51.7504943319114</v>
       </c>
       <c r="M45" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169809</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399961</v>
+        <v>30.42412659399958</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H46" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593426</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388662</v>
+        <v>29.7074559238866</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453769</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R46" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947723</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U46" t="n">
         <v>0.01089915222840405</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540034</v>
+        <v>30.39929300540029</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>19.86194776612</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662954</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>56.0005849720632</v>
       </c>
       <c r="P11" t="n">
-        <v>57.05548430630985</v>
+        <v>57.05548430630976</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821171</v>
+        <v>36.23621915821165</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.73598032068647</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.44998430248939</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.22885684391449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>14.77887254142516</v>
       </c>
     </row>
     <row r="13">
@@ -35541,22 +35541,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.3663324693274</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.11347102880887</v>
+        <v>51.11347102880885</v>
       </c>
       <c r="D13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.69240919163301</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>50.7602528207572</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>33.0863295430626</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>68.39702598806986</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540034</v>
+        <v>30.39929300540026</v>
       </c>
       <c r="J14" t="n">
-        <v>6.193995348176697</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,25 +35653,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>6.193995348177243</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630985</v>
+        <v>57.05548430630974</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388634</v>
+        <v>49.80658962388624</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821171</v>
+        <v>36.23621915821163</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068651</v>
+        <v>22.73598032068644</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35708,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>52.22885684391465</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.22885684391446</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>51.11347102880887</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35793,13 +35793,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.1256962759527452</v>
       </c>
       <c r="H16" t="n">
-        <v>58.59251376432424</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35820,13 +35820,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="R16" t="n">
-        <v>12.86014824806577</v>
+        <v>54.04341077717658</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,16 +35878,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J17" t="n">
-        <v>43.63661430849643</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,16 +35896,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="P17" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,10 +36112,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36136,22 +36136,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q20" t="n">
-        <v>26.6883387139795</v>
+        <v>43.63661430849649</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>21.99689547803524</v>
@@ -36349,25 +36349,25 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I23" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>26.68833871397956</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,19 +36376,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.63661430849646</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>21.99689547803524</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281774</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J26" t="n">
-        <v>82.30317859881801</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>265.7915148015464</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M26" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438856</v>
       </c>
       <c r="O26" t="n">
-        <v>71.72427447050296</v>
+        <v>71.72427447050289</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320692</v>
+        <v>392.1320314393866</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.723301630745</v>
+        <v>52.37168395130369</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562911</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810391</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.32534714817462</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>118.4423858176572</v>
+        <v>4.66221197618126</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>56.55645318095335</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2.13999046298117</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36795,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.266444419660388</v>
       </c>
     </row>
     <row r="29">
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281774</v>
+        <v>32.96438733281775</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881801</v>
+        <v>82.30317859881799</v>
       </c>
       <c r="K29" t="n">
-        <v>400.2028599471601</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404693</v>
+        <v>193.9475524700657</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>74.64632922401745</v>
       </c>
       <c r="N29" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="O29" t="n">
-        <v>254.8121827951047</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320692</v>
+        <v>59.62057863372722</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562911</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>17.60197741370962</v>
+        <v>25.30107464810392</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.37732844655475</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36966,13 +36966,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>31.08878357445286</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>72.00955177290928</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>74.04049411422946</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>55.57878938950776</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>62.81154450450875</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,10 +37011,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>56.60850510459404</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.13999046298117</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281774</v>
+        <v>32.96438733281769</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K32" t="n">
-        <v>400.2028599471601</v>
+        <v>63.09163087314865</v>
       </c>
       <c r="L32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401749</v>
+        <v>89.26234967570561</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>433.3080812606695</v>
       </c>
-      <c r="O32" t="n">
-        <v>29.31460107145659</v>
-      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376046</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562911</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.30107464810387</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37121,7 +37121,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.645498439422474</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N34" t="n">
-        <v>127.0992840106138</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.03954545097796</v>
+        <v>56.608505104594</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735951</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>170.2937647930129</v>
+        <v>85.21122907769045</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858871</v>
+        <v>83.55931005858864</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855927</v>
+        <v>287.2164556980698</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>98.94142958893033</v>
       </c>
       <c r="O35" t="n">
-        <v>364.9110552725996</v>
+        <v>93.84387267504466</v>
       </c>
       <c r="P35" t="n">
-        <v>364.9110552725996</v>
+        <v>35.00074566177848</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584551</v>
+        <v>295.2988724421463</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017088</v>
+        <v>60.92091169017085</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T35" t="n">
         <v>22.11959820454176</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.993807017681523</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.993807017681523</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.33135376624017</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.27720629628341</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J38" t="n">
-        <v>199.9852314539623</v>
+        <v>104.4227768033597</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769049</v>
+        <v>85.21122907769045</v>
       </c>
       <c r="L38" t="n">
+        <v>83.55931005858864</v>
+      </c>
+      <c r="M38" t="n">
         <v>364.9110552725996</v>
-      </c>
-      <c r="M38" t="n">
-        <v>96.76592742855927</v>
       </c>
       <c r="N38" t="n">
         <v>364.9110552725996</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504474</v>
+        <v>100.1082863056129</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826902</v>
+        <v>81.74017683826897</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584551</v>
+        <v>74.49128215584547</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017088</v>
+        <v>60.92091169017085</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T38" t="n">
         <v>22.11959820454176</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,10 +37722,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.34897139500063</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.25958866752294</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735954</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>280.2832565823165</v>
+        <v>3.546366589510178</v>
       </c>
       <c r="K41" t="n">
-        <v>150.3717855884403</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="L41" t="n">
+        <v>83.55931005858864</v>
+      </c>
+      <c r="M41" t="n">
+        <v>96.76592742855919</v>
+      </c>
+      <c r="N41" t="n">
         <v>364.9110552725996</v>
       </c>
-      <c r="M41" t="n">
-        <v>96.76592742855929</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>93.84387267504476</v>
+        <v>93.84387267504466</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>232.4102878691772</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584547</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017091</v>
+        <v>60.92091169017085</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264571</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.993807017681523</v>
       </c>
       <c r="R42" t="n">
-        <v>6.993807017681495</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.60856006252349</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735954</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033598</v>
+        <v>104.4227768033597</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769052</v>
+        <v>85.21122907769045</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858874</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="M44" t="n">
-        <v>364.9110552725996</v>
+        <v>89.82372368915678</v>
       </c>
       <c r="N44" t="n">
         <v>364.9110552725996</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504476</v>
+        <v>93.84387267504466</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>81.74017683826897</v>
       </c>
       <c r="Q44" t="n">
-        <v>232.0361436818698</v>
+        <v>74.49128215584547</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017091</v>
+        <v>60.92091169017085</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>6.993807017681495</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>6.993807017681523</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.60856006252349</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
